--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="183">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,18 +40,15 @@
     <t>name</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
     <t>killed</t>
   </si>
   <si>
-    <t>arrested</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>disgusting</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
@@ -61,24 +58,24 @@
     <t>fear</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>struggling</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
     <t>shame</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>avoid</t>
   </si>
   <si>
@@ -88,367 +85,484 @@
     <t>low</t>
   </si>
   <si>
-    <t>fight</t>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>demand</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>gloves</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>businesses</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>tips</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>shop</t>
   </si>
   <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>19</t>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>let</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>masks</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>workers</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>trump</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>going</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>qu</t>
   </si>
   <si>
     <t>food</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>hands</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>tips</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>businesses</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>gloves</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>employees</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>masks</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>times</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>workers</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
     <t>shelves</t>
   </si>
   <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>qu</t>
-  </si>
-  <si>
-    <t>going</t>
-  </si>
-  <si>
     <t>need</t>
   </si>
   <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>lock</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
     <t>pan</t>
+  </si>
+  <si>
+    <t>oil</t>
   </si>
 </sst>
 </file>
@@ -806,7 +920,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q119"/>
+  <dimension ref="A1:Q159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -814,10 +928,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -878,10 +992,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -896,28 +1010,28 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K3">
-        <v>0.8803418803418803</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="N3">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -925,13 +1039,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -943,31 +1057,31 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="K4">
-        <v>0.84251968503937</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N4">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -996,28 +1110,28 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="K5">
-        <v>0.8272727272727273</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L5">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="M5">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="N5">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1025,13 +1139,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6842105263157895</v>
+        <v>0.6952054794520548</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>203</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>203</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1043,31 +1157,31 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>0.7586206896551724</v>
+        <v>0.8515625</v>
       </c>
       <c r="L6">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="M6">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="N6">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1075,13 +1189,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6678082191780822</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C7">
-        <v>195</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>195</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1093,31 +1207,31 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>0.75</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="N7">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1125,13 +1239,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6111111111111112</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1143,31 +1257,31 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>11</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8">
+        <v>0.8292682926829268</v>
+      </c>
+      <c r="L8">
+        <v>68</v>
+      </c>
+      <c r="M8">
+        <v>68</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>14</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8">
-        <v>0.7452229299363057</v>
-      </c>
-      <c r="L8">
-        <v>117</v>
-      </c>
-      <c r="M8">
-        <v>120</v>
-      </c>
-      <c r="N8">
-        <v>0.97</v>
-      </c>
-      <c r="O8">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P8" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1175,13 +1289,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5769230769230769</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1193,31 +1307,31 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="K9">
-        <v>0.723404255319149</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L9">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="M9">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="N9">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1225,13 +1339,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5185185185185185</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1243,28 +1357,28 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>0.7222222222222222</v>
+        <v>0.7641509433962265</v>
       </c>
       <c r="L10">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="M10">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="N10">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>25</v>
@@ -1275,13 +1389,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4266666666666667</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1293,31 +1407,31 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>0.7128712871287128</v>
+        <v>0.75625</v>
       </c>
       <c r="L11">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="M11">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="N11">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1325,13 +1439,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3823529411764706</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1343,31 +1457,31 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K12">
-        <v>0.6826086956521739</v>
+        <v>0.75</v>
       </c>
       <c r="L12">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="M12">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c r="N12">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1375,13 +1489,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3783783783783784</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1393,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K13">
-        <v>0.6739130434782609</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="L13">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="M13">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1417,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1425,49 +1539,49 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3553398058252427</v>
+        <v>0.3468992248062016</v>
       </c>
       <c r="C14">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D14">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E14">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K14">
-        <v>0.6184615384615385</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L14">
-        <v>201</v>
+        <v>35</v>
       </c>
       <c r="M14">
-        <v>216</v>
+        <v>35</v>
       </c>
       <c r="N14">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>124</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1475,13 +1589,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3137254901960784</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1493,19 +1607,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>0.5916230366492147</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L15">
-        <v>226</v>
+        <v>68</v>
       </c>
       <c r="M15">
-        <v>227</v>
+        <v>68</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1514,10 +1628,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>156</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1525,49 +1639,49 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2962962962962963</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E16">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K16">
-        <v>0.5522388059701493</v>
+        <v>0.7154811715481172</v>
       </c>
       <c r="L16">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="M16">
-        <v>40</v>
+        <v>171</v>
       </c>
       <c r="N16">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1575,13 +1689,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2857142857142857</v>
+        <v>0.2416107382550336</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1593,31 +1707,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="K17">
-        <v>0.5413793103448276</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L17">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c r="M17">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="N17">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>133</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1625,38 +1739,38 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2214765100671141</v>
+        <v>0.09126984126984126</v>
       </c>
       <c r="C18">
+        <v>23</v>
+      </c>
+      <c r="D18">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>229</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18">
+        <v>0.6875</v>
+      </c>
+      <c r="L18">
         <v>33</v>
       </c>
-      <c r="D18">
+      <c r="M18">
         <v>33</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>116</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K18">
-        <v>0.5396825396825397</v>
-      </c>
-      <c r="L18">
-        <v>34</v>
-      </c>
-      <c r="M18">
-        <v>34</v>
-      </c>
       <c r="N18">
         <v>1</v>
       </c>
@@ -1667,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1675,13 +1789,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2</v>
+        <v>0.05093833780160858</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1693,445 +1807,253 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>64</v>
+        <v>354</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19">
+        <v>0.6558823529411765</v>
+      </c>
+      <c r="L19">
+        <v>223</v>
+      </c>
+      <c r="M19">
+        <v>223</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20">
+        <v>0.618798955613577</v>
+      </c>
+      <c r="L20">
+        <v>237</v>
+      </c>
+      <c r="M20">
+        <v>237</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21">
+        <v>0.6</v>
+      </c>
+      <c r="L21">
+        <v>39</v>
+      </c>
+      <c r="M21">
+        <v>39</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22">
+        <v>0.5842696629213483</v>
+      </c>
+      <c r="L22">
+        <v>52</v>
+      </c>
+      <c r="M22">
+        <v>52</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="J23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23">
+        <v>0.5796610169491525</v>
+      </c>
+      <c r="L23">
+        <v>171</v>
+      </c>
+      <c r="M23">
+        <v>171</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K24">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L24">
+        <v>40</v>
+      </c>
+      <c r="M24">
+        <v>40</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="L25">
+        <v>14</v>
+      </c>
+      <c r="M25">
+        <v>14</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K19">
-        <v>0.5106382978723404</v>
-      </c>
-      <c r="L19">
-        <v>24</v>
-      </c>
-      <c r="M19">
-        <v>24</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
+      <c r="K26">
+        <v>0.5098039215686274</v>
+      </c>
+      <c r="L26">
+        <v>26</v>
+      </c>
+      <c r="M26">
+        <v>26</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>25</v>
       </c>
-      <c r="B20">
-        <v>0.1079136690647482</v>
-      </c>
-      <c r="C20">
-        <v>15</v>
-      </c>
-      <c r="D20">
-        <v>216</v>
-      </c>
-      <c r="E20">
-        <v>0.93</v>
-      </c>
-      <c r="F20">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>124</v>
-      </c>
-      <c r="J20" s="1" t="s">
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K20">
-        <v>0.5057471264367817</v>
-      </c>
-      <c r="L20">
-        <v>44</v>
-      </c>
-      <c r="M20">
-        <v>46</v>
-      </c>
-      <c r="N20">
-        <v>0.96</v>
-      </c>
-      <c r="O20">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P20" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q20">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.07539682539682539</v>
-      </c>
-      <c r="C21">
-        <v>19</v>
-      </c>
-      <c r="D21">
-        <v>19</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>233</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21">
-        <v>0.4736842105263158</v>
-      </c>
-      <c r="L21">
-        <v>27</v>
-      </c>
-      <c r="M21">
-        <v>28</v>
-      </c>
-      <c r="N21">
-        <v>0.96</v>
-      </c>
-      <c r="O21">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P21" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q21">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.04043126684636118</v>
-      </c>
-      <c r="C22">
-        <v>15</v>
-      </c>
-      <c r="D22">
-        <v>17</v>
-      </c>
-      <c r="E22">
-        <v>0.12</v>
-      </c>
-      <c r="F22">
-        <v>0.88</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>356</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K22">
-        <v>0.4375</v>
-      </c>
-      <c r="L22">
-        <v>14</v>
-      </c>
-      <c r="M22">
-        <v>15</v>
-      </c>
-      <c r="N22">
-        <v>0.93</v>
-      </c>
-      <c r="O22">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P22" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q22">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.02509652509652509</v>
-      </c>
-      <c r="C23">
-        <v>13</v>
-      </c>
-      <c r="D23">
-        <v>145</v>
-      </c>
-      <c r="E23">
-        <v>0.91</v>
-      </c>
-      <c r="F23">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>505</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K23">
-        <v>0.425531914893617</v>
-      </c>
-      <c r="L23">
-        <v>20</v>
-      </c>
-      <c r="M23">
-        <v>21</v>
-      </c>
-      <c r="N23">
-        <v>0.95</v>
-      </c>
-      <c r="O23">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q23">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.01886792452830189</v>
-      </c>
-      <c r="C24">
-        <v>31</v>
-      </c>
-      <c r="D24">
-        <v>531</v>
-      </c>
-      <c r="E24">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F24">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>1612</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K24">
-        <v>0.3971291866028708</v>
-      </c>
-      <c r="L24">
-        <v>83</v>
-      </c>
-      <c r="M24">
-        <v>89</v>
-      </c>
-      <c r="N24">
-        <v>0.93</v>
-      </c>
-      <c r="O24">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q24">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.01785714285714286</v>
-      </c>
-      <c r="C25">
-        <v>16</v>
-      </c>
-      <c r="D25">
-        <v>88</v>
-      </c>
-      <c r="E25">
-        <v>0.82</v>
-      </c>
-      <c r="F25">
-        <v>0.18</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>880</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K25">
-        <v>0.3953488372093023</v>
-      </c>
-      <c r="L25">
-        <v>17</v>
-      </c>
-      <c r="M25">
-        <v>17</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.01447424435930183</v>
-      </c>
-      <c r="C26">
-        <v>34</v>
-      </c>
-      <c r="D26">
-        <v>792</v>
-      </c>
-      <c r="E26">
-        <v>0.96</v>
-      </c>
-      <c r="F26">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>2315</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K26">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="L26">
-        <v>14</v>
-      </c>
-      <c r="M26">
-        <v>14</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
+      <c r="K27">
+        <v>0.5</v>
+      </c>
+      <c r="L27">
         <v>32</v>
       </c>
-      <c r="B27">
-        <v>0.007975693125712115</v>
-      </c>
-      <c r="C27">
-        <v>21</v>
-      </c>
-      <c r="D27">
-        <v>589</v>
-      </c>
-      <c r="E27">
-        <v>0.96</v>
-      </c>
-      <c r="F27">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>2612</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27">
-        <v>0.3809523809523809</v>
-      </c>
-      <c r="L27">
-        <v>24</v>
-      </c>
       <c r="M27">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N27">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="K28">
-        <v>0.3739130434782609</v>
+        <v>0.5</v>
       </c>
       <c r="L28">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="M28">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2143,21 +2065,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>72</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K29">
-        <v>0.3736263736263736</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L29">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="M29">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2169,151 +2091,151 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>57</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K30">
-        <v>0.3645320197044335</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L30">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M30">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="N30">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>258</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="K31">
-        <v>0.3636363636363636</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="L31">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M31">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N31">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K32">
-        <v>0.3636363636363636</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="L32">
         <v>20</v>
       </c>
       <c r="M32">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N32">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K33">
-        <v>0.3636363636363636</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L33">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="M33">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="N33">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="K34">
-        <v>0.35</v>
+        <v>0.459016393442623</v>
       </c>
       <c r="L34">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="M34">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="N34">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>104</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K35">
-        <v>0.35</v>
+        <v>0.4150943396226415</v>
       </c>
       <c r="L35">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2325,73 +2247,73 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>26</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="K36">
-        <v>0.3481012658227848</v>
+        <v>0.4</v>
       </c>
       <c r="L36">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="M36">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="N36">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>103</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="K37">
-        <v>0.3396226415094339</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="L37">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="M37">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="N37">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O37">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>140</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K38">
-        <v>0.328125</v>
+        <v>0.3859649122807017</v>
       </c>
       <c r="L38">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M38">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2403,21 +2325,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K39">
-        <v>0.3137254901960784</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="L39">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M39">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2429,41 +2351,41 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K40">
-        <v>0.3052631578947368</v>
+        <v>0.38</v>
       </c>
       <c r="L40">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M40">
+        <v>19</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <v>31</v>
-      </c>
-      <c r="N40">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O40">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>66</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K41">
-        <v>0.3</v>
+        <v>0.375</v>
       </c>
       <c r="L41">
         <v>15</v>
@@ -2481,47 +2403,47 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K42">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="L42">
+        <v>42</v>
+      </c>
+      <c r="M42">
+        <v>43</v>
+      </c>
+      <c r="N42">
+        <v>0.98</v>
+      </c>
+      <c r="O42">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
         <v>72</v>
-      </c>
-      <c r="K42">
-        <v>0.2975206611570248</v>
-      </c>
-      <c r="L42">
-        <v>144</v>
-      </c>
-      <c r="M42">
-        <v>146</v>
-      </c>
-      <c r="N42">
-        <v>0.99</v>
-      </c>
-      <c r="O42">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="P42" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q42">
-        <v>340</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="K43">
-        <v>0.2926829268292683</v>
+        <v>0.3674418604651163</v>
       </c>
       <c r="L43">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="M43">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2533,47 +2455,47 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>58</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="K44">
-        <v>0.2902439024390244</v>
+        <v>0.361244019138756</v>
       </c>
       <c r="L44">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="M44">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="N44">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>291</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="K45">
-        <v>0.288135593220339</v>
+        <v>0.3505154639175257</v>
       </c>
       <c r="L45">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="M45">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2585,21 +2507,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="K46">
-        <v>0.2857142857142857</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="L46">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M46">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2611,21 +2533,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="K47">
-        <v>0.2857142857142857</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="L47">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="M47">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2637,125 +2559,125 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>45</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K48">
-        <v>0.2857142857142857</v>
+        <v>0.3366336633663367</v>
       </c>
       <c r="L48">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="M48">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="N48">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="K49">
-        <v>0.2846153846153846</v>
+        <v>0.3362068965517241</v>
       </c>
       <c r="L49">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M49">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N49">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K50">
-        <v>0.2835820895522388</v>
+        <v>0.3358778625954199</v>
       </c>
       <c r="L50">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M50">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N50">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K51">
-        <v>0.2807017543859649</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L51">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="M51">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="N51">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>164</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K52">
-        <v>0.2786885245901639</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L52">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="M52">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2767,30 +2689,30 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>44</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="K53">
-        <v>0.2777777777777778</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L53">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M53">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N53">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
         <v>52</v>
@@ -2798,62 +2720,62 @@
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="K54">
-        <v>0.2777777777777778</v>
+        <v>0.3287671232876712</v>
       </c>
       <c r="L54">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M54">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N54">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>78</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K55">
-        <v>0.2760736196319019</v>
+        <v>0.3257575757575757</v>
       </c>
       <c r="L55">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M55">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N55">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O55">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>118</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="K56">
-        <v>0.2753623188405797</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L56">
         <v>19</v>
@@ -2871,125 +2793,125 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="K57">
-        <v>0.2695924764890282</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="L57">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="M57">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="N57">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>233</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="K58">
-        <v>0.2671232876712329</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="L58">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="M58">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="N58">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>107</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K59">
-        <v>0.2660818713450293</v>
+        <v>0.3153153153153153</v>
       </c>
       <c r="L59">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="M59">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="N59">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="O59">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>251</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="K60">
-        <v>0.260586319218241</v>
+        <v>0.3125</v>
       </c>
       <c r="L60">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="M60">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="N60">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>227</v>
+        <v>286</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="K61">
-        <v>0.2574257425742574</v>
+        <v>0.3119266055045872</v>
       </c>
       <c r="L61">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M61">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3006,146 +2928,146 @@
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K62">
-        <v>0.2567873303167421</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="L62">
-        <v>227</v>
+        <v>13</v>
       </c>
       <c r="M62">
-        <v>237</v>
+        <v>13</v>
       </c>
       <c r="N62">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>657</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="K63">
-        <v>0.2553191489361702</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L63">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M63">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N63">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="K64">
-        <v>0.2533333333333334</v>
+        <v>0.3065902578796562</v>
       </c>
       <c r="L64">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="M64">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="N64">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>56</v>
+        <v>242</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="K65">
-        <v>0.2477578475336323</v>
+        <v>0.3065843621399177</v>
       </c>
       <c r="L65">
-        <v>221</v>
+        <v>149</v>
       </c>
       <c r="M65">
-        <v>230</v>
+        <v>149</v>
       </c>
       <c r="N65">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>671</v>
+        <v>337</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="K66">
-        <v>0.2466644972339733</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L66">
-        <v>758</v>
+        <v>22</v>
       </c>
       <c r="M66">
-        <v>792</v>
+        <v>22</v>
       </c>
       <c r="N66">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>2315</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K67">
-        <v>0.2447552447552448</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L67">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M67">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3157,21 +3079,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>108</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K68">
-        <v>0.2372881355932203</v>
+        <v>0.2989690721649484</v>
       </c>
       <c r="L68">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M68">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3183,47 +3105,47 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>45</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="K69">
-        <v>0.2367424242424243</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="L69">
-        <v>500</v>
+        <v>92</v>
       </c>
       <c r="M69">
-        <v>531</v>
+        <v>92</v>
       </c>
       <c r="N69">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>1612</v>
+        <v>216</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K70">
-        <v>0.2327586206896552</v>
+        <v>0.2985074626865671</v>
       </c>
       <c r="L70">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M70">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3235,177 +3157,177 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>89</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K71">
-        <v>0.2307692307692308</v>
+        <v>0.2978723404255319</v>
       </c>
       <c r="L71">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="M71">
+        <v>14</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q71">
         <v>33</v>
-      </c>
-      <c r="N71">
-        <v>0.91</v>
-      </c>
-      <c r="O71">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P71" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q71">
-        <v>100</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K72">
-        <v>0.2293233082706767</v>
+        <v>0.2976744186046512</v>
       </c>
       <c r="L72">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M72">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N72">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>205</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K73">
-        <v>0.2289156626506024</v>
+        <v>0.2956521739130435</v>
       </c>
       <c r="L73">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="M73">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="N73">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>64</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K74">
-        <v>0.2285714285714286</v>
+        <v>0.2925170068027211</v>
       </c>
       <c r="L74">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="M74">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="N74">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>54</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K75">
-        <v>0.2272727272727273</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="L75">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M75">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="N75">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>85</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K76">
-        <v>0.2258064516129032</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="L76">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M76">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="N76">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>96</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K77">
-        <v>0.2241379310344828</v>
+        <v>0.2874617737003058</v>
       </c>
       <c r="L77">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M77">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3417,229 +3339,229 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>45</v>
+        <v>233</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K78">
-        <v>0.2222222222222222</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L78">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="M78">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="N78">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O78">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>434</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K79">
-        <v>0.2153846153846154</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L79">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M79">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="N79">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>102</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K80">
-        <v>0.2112068965517241</v>
+        <v>0.2846715328467153</v>
       </c>
       <c r="L80">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="M80">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="N80">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O80">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>183</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K81">
-        <v>0.2074074074074074</v>
+        <v>0.2835820895522388</v>
       </c>
       <c r="L81">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="M81">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N81">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O81">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="K82">
-        <v>0.2072213500784929</v>
+        <v>0.2763157894736842</v>
       </c>
       <c r="L82">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="M82">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="N82">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O82">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>505</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K83">
-        <v>0.2070175438596491</v>
+        <v>0.2755905511811024</v>
       </c>
       <c r="L83">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="M83">
-        <v>189</v>
+        <v>35</v>
       </c>
       <c r="N83">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>678</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K84">
-        <v>0.2051282051282051</v>
+        <v>0.2657342657342657</v>
       </c>
       <c r="L84">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="M84">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="N84">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O84">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>62</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K85">
-        <v>0.203125</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L85">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M85">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="N85">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O85">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q85">
-        <v>102</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K86">
-        <v>0.2016806722689076</v>
+        <v>0.2627865961199294</v>
       </c>
       <c r="L86">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="M86">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3651,21 +3573,21 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>95</v>
+        <v>418</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K87">
-        <v>0.1944444444444444</v>
+        <v>0.2616033755274262</v>
       </c>
       <c r="L87">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="M87">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3677,47 +3599,47 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>58</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K88">
-        <v>0.1886792452830189</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="L88">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M88">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N88">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="O88">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q88">
-        <v>86</v>
+        <v>51</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K89">
-        <v>0.1858407079646018</v>
+        <v>0.2589285714285715</v>
       </c>
       <c r="L89">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M89">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3729,47 +3651,47 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K90">
-        <v>0.1855670103092784</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="L90">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M90">
         <v>20</v>
       </c>
       <c r="N90">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O90">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K91">
-        <v>0.1854838709677419</v>
+        <v>0.256152125279642</v>
       </c>
       <c r="L91">
-        <v>23</v>
+        <v>229</v>
       </c>
       <c r="M91">
-        <v>23</v>
+        <v>229</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3781,99 +3703,99 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>101</v>
+        <v>665</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K92">
-        <v>0.1794871794871795</v>
+        <v>0.2556390977443609</v>
       </c>
       <c r="L92">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="M92">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O92">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q92">
-        <v>64</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K93">
-        <v>0.1790123456790123</v>
+        <v>0.2555591363196906</v>
       </c>
       <c r="L93">
-        <v>29</v>
+        <v>793</v>
       </c>
       <c r="M93">
-        <v>31</v>
+        <v>797</v>
       </c>
       <c r="N93">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="O93">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P93" t="b">
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>133</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="K94">
-        <v>0.1786163522012578</v>
+        <v>0.2508324084350722</v>
       </c>
       <c r="L94">
-        <v>568</v>
+        <v>226</v>
       </c>
       <c r="M94">
-        <v>589</v>
+        <v>226</v>
       </c>
       <c r="N94">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O94">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q94">
-        <v>2612</v>
+        <v>675</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K95">
-        <v>0.1730769230769231</v>
+        <v>0.2492997198879552</v>
       </c>
       <c r="L95">
-        <v>18</v>
+        <v>534</v>
       </c>
       <c r="M95">
-        <v>18</v>
+        <v>535</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -3882,336 +3804,336 @@
         <v>0</v>
       </c>
       <c r="P95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q95">
-        <v>86</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K96">
-        <v>0.1682242990654206</v>
+        <v>0.2456140350877193</v>
       </c>
       <c r="L96">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M96">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N96">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O96">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q96">
-        <v>89</v>
+        <v>43</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K97">
-        <v>0.1666666666666667</v>
+        <v>0.2452830188679245</v>
       </c>
       <c r="L97">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M97">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N97">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O97">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q97">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K98">
-        <v>0.1612903225806452</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="L98">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="M98">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="N98">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O98">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q98">
-        <v>234</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K99">
-        <v>0.1605839416058394</v>
+        <v>0.2419354838709677</v>
       </c>
       <c r="L99">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M99">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N99">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O99">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>115</v>
+        <v>94</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K100">
-        <v>0.15625</v>
+        <v>0.2403100775193799</v>
       </c>
       <c r="L100">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M100">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N100">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O100">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q100">
-        <v>189</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K101">
-        <v>0.1521739130434783</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="L101">
         <v>28</v>
       </c>
       <c r="M101">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N101">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O101">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q101">
-        <v>156</v>
+        <v>91</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K102">
-        <v>0.1496062992125984</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="L102">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M102">
         <v>20</v>
       </c>
       <c r="N102">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O102">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q102">
-        <v>108</v>
+        <v>68</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K103">
-        <v>0.1494252873563219</v>
+        <v>0.2241379310344828</v>
       </c>
       <c r="L103">
         <v>13</v>
       </c>
       <c r="M103">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N103">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O103">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q103">
-        <v>74</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K104">
-        <v>0.1466666666666667</v>
+        <v>0.2241379310344828</v>
       </c>
       <c r="L104">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M104">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="N104">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O104">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q104">
-        <v>192</v>
+        <v>45</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K105">
-        <v>0.1414473684210526</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="L105">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M105">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N105">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O105">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q105">
-        <v>261</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K106">
-        <v>0.1403812824956673</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="L106">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="M106">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="N106">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O106">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q106">
-        <v>992</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K107">
-        <v>0.1345029239766082</v>
+        <v>0.2114197530864197</v>
       </c>
       <c r="L107">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="M107">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="N107">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O107">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P107" t="b">
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>148</v>
+        <v>511</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K108">
-        <v>0.1266666666666667</v>
+        <v>0.2110091743119266</v>
       </c>
       <c r="L108">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="M108">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -4223,47 +4145,47 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>262</v>
+        <v>86</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K109">
-        <v>0.1240875912408759</v>
+        <v>0.2109375</v>
       </c>
       <c r="L109">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M109">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N109">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O109">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q109">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K110">
-        <v>0.1194444444444445</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="L110">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M110">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -4275,73 +4197,73 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>317</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K111">
-        <v>0.1158536585365854</v>
+        <v>0.2043879907621247</v>
       </c>
       <c r="L111">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="M111">
-        <v>21</v>
+        <v>178</v>
       </c>
       <c r="N111">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="O111">
-        <v>0.09999999999999998</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P111" t="b">
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>145</v>
+        <v>689</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K112">
-        <v>0.1100746268656716</v>
+        <v>0.2043795620437956</v>
       </c>
       <c r="L112">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="M112">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="N112">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="O112">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q112">
-        <v>477</v>
+        <v>109</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K113">
-        <v>0.109375</v>
+        <v>0.203125</v>
       </c>
       <c r="L113">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M113">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="N113">
         <v>1</v>
@@ -4353,47 +4275,47 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="114" spans="10:17">
       <c r="J114" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K114">
-        <v>0.09558823529411764</v>
+        <v>0.2025316455696203</v>
       </c>
       <c r="L114">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M114">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N114">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="O114">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q114">
-        <v>123</v>
+        <v>63</v>
       </c>
     </row>
     <row r="115" spans="10:17">
       <c r="J115" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K115">
-        <v>0.09333333333333334</v>
+        <v>0.2019230769230769</v>
       </c>
       <c r="L115">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M115">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N115">
         <v>1</v>
@@ -4405,111 +4327,1151 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>136</v>
+        <v>83</v>
       </c>
     </row>
     <row r="116" spans="10:17">
       <c r="J116" s="1" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="K116">
-        <v>0.07563025210084033</v>
+        <v>0.2</v>
       </c>
       <c r="L116">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="M116">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="N116">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="O116">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="P116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q116">
-        <v>880</v>
+        <v>68</v>
       </c>
     </row>
     <row r="117" spans="10:17">
       <c r="J117" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K117">
-        <v>0.07423580786026202</v>
+        <v>0.1975308641975309</v>
       </c>
       <c r="L117">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M117">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N117">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O117">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q117">
-        <v>212</v>
+        <v>65</v>
       </c>
     </row>
     <row r="118" spans="10:17">
       <c r="J118" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K118">
-        <v>0.04844290657439446</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="L118">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M118">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N118">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O118">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q118">
-        <v>275</v>
+        <v>90</v>
       </c>
     </row>
     <row r="119" spans="10:17">
       <c r="J119" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K119">
+        <v>0.1964285714285714</v>
+      </c>
+      <c r="L119">
+        <v>22</v>
+      </c>
+      <c r="M119">
+        <v>23</v>
+      </c>
+      <c r="N119">
+        <v>0.96</v>
+      </c>
+      <c r="O119">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P119" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q119">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="120" spans="10:17">
+      <c r="J120" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K120">
+        <v>0.1957295373665481</v>
+      </c>
+      <c r="L120">
+        <v>55</v>
+      </c>
+      <c r="M120">
+        <v>55</v>
+      </c>
+      <c r="N120">
+        <v>1</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="121" spans="10:17">
+      <c r="J121" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="K119">
-        <v>0.03663793103448276</v>
-      </c>
-      <c r="L119">
+      <c r="K121">
+        <v>0.1951829840475446</v>
+      </c>
+      <c r="L121">
+        <v>624</v>
+      </c>
+      <c r="M121">
+        <v>628</v>
+      </c>
+      <c r="N121">
+        <v>0.99</v>
+      </c>
+      <c r="O121">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P121" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q121">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="122" spans="10:17">
+      <c r="J122" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K122">
+        <v>0.1919191919191919</v>
+      </c>
+      <c r="L122">
+        <v>19</v>
+      </c>
+      <c r="M122">
+        <v>19</v>
+      </c>
+      <c r="N122">
+        <v>1</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q122">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="123" spans="10:17">
+      <c r="J123" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K123">
+        <v>0.1866666666666667</v>
+      </c>
+      <c r="L123">
+        <v>14</v>
+      </c>
+      <c r="M123">
+        <v>14</v>
+      </c>
+      <c r="N123">
+        <v>1</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+      <c r="P123" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q123">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="124" spans="10:17">
+      <c r="J124" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K124">
+        <v>0.186046511627907</v>
+      </c>
+      <c r="L124">
+        <v>16</v>
+      </c>
+      <c r="M124">
+        <v>16</v>
+      </c>
+      <c r="N124">
+        <v>1</v>
+      </c>
+      <c r="O124">
+        <v>0</v>
+      </c>
+      <c r="P124" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="125" spans="10:17">
+      <c r="J125" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K125">
+        <v>0.1858407079646018</v>
+      </c>
+      <c r="L125">
+        <v>42</v>
+      </c>
+      <c r="M125">
+        <v>43</v>
+      </c>
+      <c r="N125">
+        <v>0.98</v>
+      </c>
+      <c r="O125">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P125" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q125">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="126" spans="10:17">
+      <c r="J126" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K126">
+        <v>0.1855670103092784</v>
+      </c>
+      <c r="L126">
+        <v>18</v>
+      </c>
+      <c r="M126">
+        <v>18</v>
+      </c>
+      <c r="N126">
+        <v>1</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+      <c r="P126" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q126">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="127" spans="10:17">
+      <c r="J127" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K127">
+        <v>0.1851851851851852</v>
+      </c>
+      <c r="L127">
+        <v>15</v>
+      </c>
+      <c r="M127">
+        <v>16</v>
+      </c>
+      <c r="N127">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O127">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P127" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q127">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="128" spans="10:17">
+      <c r="J128" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K128">
+        <v>0.1851851851851852</v>
+      </c>
+      <c r="L128">
+        <v>20</v>
+      </c>
+      <c r="M128">
+        <v>21</v>
+      </c>
+      <c r="N128">
+        <v>0.95</v>
+      </c>
+      <c r="O128">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P128" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q128">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="129" spans="10:17">
+      <c r="J129" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K129">
+        <v>0.184</v>
+      </c>
+      <c r="L129">
+        <v>23</v>
+      </c>
+      <c r="M129">
+        <v>23</v>
+      </c>
+      <c r="N129">
+        <v>1</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="130" spans="10:17">
+      <c r="J130" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K130">
+        <v>0.1829268292682927</v>
+      </c>
+      <c r="L130">
+        <v>30</v>
+      </c>
+      <c r="M130">
+        <v>30</v>
+      </c>
+      <c r="N130">
+        <v>1</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="P130" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="131" spans="10:17">
+      <c r="J131" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K131">
+        <v>0.1710526315789474</v>
+      </c>
+      <c r="L131">
+        <v>13</v>
+      </c>
+      <c r="M131">
+        <v>13</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="O131">
+        <v>0</v>
+      </c>
+      <c r="P131" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="132" spans="10:17">
+      <c r="J132" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K132">
+        <v>0.1684210526315789</v>
+      </c>
+      <c r="L132">
+        <v>16</v>
+      </c>
+      <c r="M132">
+        <v>16</v>
+      </c>
+      <c r="N132">
+        <v>1</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
+      <c r="P132" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="133" spans="10:17">
+      <c r="J133" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K133">
+        <v>0.1644444444444444</v>
+      </c>
+      <c r="L133">
+        <v>37</v>
+      </c>
+      <c r="M133">
+        <v>37</v>
+      </c>
+      <c r="N133">
+        <v>1</v>
+      </c>
+      <c r="O133">
+        <v>0</v>
+      </c>
+      <c r="P133" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q133">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="134" spans="10:17">
+      <c r="J134" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K134">
+        <v>0.1605351170568562</v>
+      </c>
+      <c r="L134">
+        <v>48</v>
+      </c>
+      <c r="M134">
+        <v>49</v>
+      </c>
+      <c r="N134">
+        <v>0.98</v>
+      </c>
+      <c r="O134">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P134" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q134">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="135" spans="10:17">
+      <c r="J135" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K135">
+        <v>0.1573770491803279</v>
+      </c>
+      <c r="L135">
+        <v>48</v>
+      </c>
+      <c r="M135">
+        <v>49</v>
+      </c>
+      <c r="N135">
+        <v>0.98</v>
+      </c>
+      <c r="O135">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P135" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q135">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="136" spans="10:17">
+      <c r="J136" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K136">
+        <v>0.1569767441860465</v>
+      </c>
+      <c r="L136">
+        <v>27</v>
+      </c>
+      <c r="M136">
+        <v>27</v>
+      </c>
+      <c r="N136">
+        <v>1</v>
+      </c>
+      <c r="O136">
+        <v>0</v>
+      </c>
+      <c r="P136" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q136">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="137" spans="10:17">
+      <c r="J137" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K137">
+        <v>0.1532258064516129</v>
+      </c>
+      <c r="L137">
+        <v>19</v>
+      </c>
+      <c r="M137">
+        <v>19</v>
+      </c>
+      <c r="N137">
+        <v>1</v>
+      </c>
+      <c r="O137">
+        <v>0</v>
+      </c>
+      <c r="P137" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q137">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="138" spans="10:17">
+      <c r="J138" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K138">
+        <v>0.1530612244897959</v>
+      </c>
+      <c r="L138">
+        <v>15</v>
+      </c>
+      <c r="M138">
         <v>17</v>
       </c>
-      <c r="M119">
-        <v>17</v>
-      </c>
-      <c r="N119">
-        <v>1</v>
-      </c>
-      <c r="O119">
-        <v>0</v>
-      </c>
-      <c r="P119" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q119">
-        <v>447</v>
+      <c r="N138">
+        <v>0.88</v>
+      </c>
+      <c r="O138">
+        <v>0.12</v>
+      </c>
+      <c r="P138" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q138">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="139" spans="10:17">
+      <c r="J139" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K139">
+        <v>0.1460674157303371</v>
+      </c>
+      <c r="L139">
+        <v>13</v>
+      </c>
+      <c r="M139">
+        <v>13</v>
+      </c>
+      <c r="N139">
+        <v>1</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+      <c r="P139" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q139">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="140" spans="10:17">
+      <c r="J140" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K140">
+        <v>0.1460674157303371</v>
+      </c>
+      <c r="L140">
+        <v>13</v>
+      </c>
+      <c r="M140">
+        <v>13</v>
+      </c>
+      <c r="N140">
+        <v>1</v>
+      </c>
+      <c r="O140">
+        <v>0</v>
+      </c>
+      <c r="P140" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q140">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="141" spans="10:17">
+      <c r="J141" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K141">
+        <v>0.143646408839779</v>
+      </c>
+      <c r="L141">
+        <v>78</v>
+      </c>
+      <c r="M141">
+        <v>80</v>
+      </c>
+      <c r="N141">
+        <v>0.97</v>
+      </c>
+      <c r="O141">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P141" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q141">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="142" spans="10:17">
+      <c r="J142" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K142">
+        <v>0.1413043478260869</v>
+      </c>
+      <c r="L142">
+        <v>13</v>
+      </c>
+      <c r="M142">
+        <v>13</v>
+      </c>
+      <c r="N142">
+        <v>1</v>
+      </c>
+      <c r="O142">
+        <v>0</v>
+      </c>
+      <c r="P142" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q142">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="143" spans="10:17">
+      <c r="J143" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K143">
+        <v>0.14</v>
+      </c>
+      <c r="L143">
+        <v>14</v>
+      </c>
+      <c r="M143">
+        <v>14</v>
+      </c>
+      <c r="N143">
+        <v>1</v>
+      </c>
+      <c r="O143">
+        <v>0</v>
+      </c>
+      <c r="P143" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q143">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="144" spans="10:17">
+      <c r="J144" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K144">
+        <v>0.1337359792924935</v>
+      </c>
+      <c r="L144">
+        <v>155</v>
+      </c>
+      <c r="M144">
+        <v>157</v>
+      </c>
+      <c r="N144">
+        <v>0.99</v>
+      </c>
+      <c r="O144">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P144" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q144">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="145" spans="10:17">
+      <c r="J145" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K145">
+        <v>0.1304347826086956</v>
+      </c>
+      <c r="L145">
+        <v>18</v>
+      </c>
+      <c r="M145">
+        <v>18</v>
+      </c>
+      <c r="N145">
+        <v>1</v>
+      </c>
+      <c r="O145">
+        <v>0</v>
+      </c>
+      <c r="P145" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q145">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="146" spans="10:17">
+      <c r="J146" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K146">
+        <v>0.1296296296296296</v>
+      </c>
+      <c r="L146">
+        <v>14</v>
+      </c>
+      <c r="M146">
+        <v>14</v>
+      </c>
+      <c r="N146">
+        <v>1</v>
+      </c>
+      <c r="O146">
+        <v>0</v>
+      </c>
+      <c r="P146" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q146">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="147" spans="10:17">
+      <c r="J147" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K147">
+        <v>0.1222222222222222</v>
+      </c>
+      <c r="L147">
+        <v>44</v>
+      </c>
+      <c r="M147">
+        <v>44</v>
+      </c>
+      <c r="N147">
+        <v>1</v>
+      </c>
+      <c r="O147">
+        <v>0</v>
+      </c>
+      <c r="P147" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q147">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="148" spans="10:17">
+      <c r="J148" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K148">
+        <v>0.1217391304347826</v>
+      </c>
+      <c r="L148">
+        <v>28</v>
+      </c>
+      <c r="M148">
+        <v>28</v>
+      </c>
+      <c r="N148">
+        <v>1</v>
+      </c>
+      <c r="O148">
+        <v>0</v>
+      </c>
+      <c r="P148" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q148">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="149" spans="10:17">
+      <c r="J149" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K149">
+        <v>0.1130434782608696</v>
+      </c>
+      <c r="L149">
+        <v>13</v>
+      </c>
+      <c r="M149">
+        <v>13</v>
+      </c>
+      <c r="N149">
+        <v>1</v>
+      </c>
+      <c r="O149">
+        <v>0</v>
+      </c>
+      <c r="P149" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q149">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="150" spans="10:17">
+      <c r="J150" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K150">
+        <v>0.1094890510948905</v>
+      </c>
+      <c r="L150">
+        <v>15</v>
+      </c>
+      <c r="M150">
+        <v>16</v>
+      </c>
+      <c r="N150">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O150">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P150" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q150">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="151" spans="10:17">
+      <c r="J151" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K151">
+        <v>0.1</v>
+      </c>
+      <c r="L151">
+        <v>15</v>
+      </c>
+      <c r="M151">
+        <v>15</v>
+      </c>
+      <c r="N151">
+        <v>1</v>
+      </c>
+      <c r="O151">
+        <v>0</v>
+      </c>
+      <c r="P151" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q151">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="152" spans="10:17">
+      <c r="J152" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K152">
+        <v>0.08479834539813857</v>
+      </c>
+      <c r="L152">
+        <v>82</v>
+      </c>
+      <c r="M152">
+        <v>83</v>
+      </c>
+      <c r="N152">
+        <v>0.99</v>
+      </c>
+      <c r="O152">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P152" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q152">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="153" spans="10:17">
+      <c r="J153" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K153">
+        <v>0.08433734939759036</v>
+      </c>
+      <c r="L153">
+        <v>14</v>
+      </c>
+      <c r="M153">
+        <v>14</v>
+      </c>
+      <c r="N153">
+        <v>1</v>
+      </c>
+      <c r="O153">
+        <v>0</v>
+      </c>
+      <c r="P153" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q153">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="10:17">
+      <c r="J154" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K154">
+        <v>0.08304498269896193</v>
+      </c>
+      <c r="L154">
+        <v>24</v>
+      </c>
+      <c r="M154">
+        <v>24</v>
+      </c>
+      <c r="N154">
+        <v>1</v>
+      </c>
+      <c r="O154">
+        <v>0</v>
+      </c>
+      <c r="P154" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q154">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="155" spans="10:17">
+      <c r="J155" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K155">
+        <v>0.07647058823529412</v>
+      </c>
+      <c r="L155">
+        <v>13</v>
+      </c>
+      <c r="M155">
+        <v>14</v>
+      </c>
+      <c r="N155">
+        <v>0.93</v>
+      </c>
+      <c r="O155">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P155" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q155">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="156" spans="10:17">
+      <c r="J156" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K156">
+        <v>0.07027027027027027</v>
+      </c>
+      <c r="L156">
+        <v>13</v>
+      </c>
+      <c r="M156">
+        <v>14</v>
+      </c>
+      <c r="N156">
+        <v>0.93</v>
+      </c>
+      <c r="O156">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P156" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q156">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="157" spans="10:17">
+      <c r="J157" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K157">
+        <v>0.06206896551724138</v>
+      </c>
+      <c r="L157">
+        <v>18</v>
+      </c>
+      <c r="M157">
+        <v>21</v>
+      </c>
+      <c r="N157">
+        <v>0.86</v>
+      </c>
+      <c r="O157">
+        <v>0.14</v>
+      </c>
+      <c r="P157" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q157">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="158" spans="10:17">
+      <c r="J158" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K158">
+        <v>0.05183585313174946</v>
+      </c>
+      <c r="L158">
+        <v>24</v>
+      </c>
+      <c r="M158">
+        <v>25</v>
+      </c>
+      <c r="N158">
+        <v>0.96</v>
+      </c>
+      <c r="O158">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P158" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q158">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="159" spans="10:17">
+      <c r="J159" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K159">
+        <v>0.04666666666666667</v>
+      </c>
+      <c r="L159">
+        <v>14</v>
+      </c>
+      <c r="M159">
+        <v>14</v>
+      </c>
+      <c r="N159">
+        <v>1</v>
+      </c>
+      <c r="O159">
+        <v>0</v>
+      </c>
+      <c r="P159" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q159">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
